--- a/data/descargables/LideresCFK.xlsx
+++ b/data/descargables/LideresCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY260"/>
+  <dimension ref="A1:AY262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64187,6 +64187,488 @@
       </c>
       <c r="AY260" t="inlineStr"/>
     </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>267</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr"/>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB261" t="inlineStr"/>
+      <c r="AC261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM261" t="inlineStr"/>
+      <c r="AN261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>268</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>038</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>El docente de filosofía fue quién hixo el curso de pensamiento computacional.</t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB262" t="inlineStr"/>
+      <c r="AC262" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD262" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE262" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF262" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH262" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM262" t="inlineStr"/>
+      <c r="AN262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AS262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX262" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY262" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/LideresCFK.xlsx
+++ b/data/descargables/LideresCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY262"/>
+  <dimension ref="A1:AY264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64669,6 +64669,492 @@
       </c>
       <c r="AY262" t="inlineStr"/>
     </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>269</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si bien hay un equipo de docentes del área de tecnología e informática, por lo general, las adecuaciones y actualizaciones son mayor responsabilidad del docente líder del área. El docente líder, manifiesta además, que aunque no está explícito en el plan el desarrollo del pensamiento computacional, si es algo que él incluye en el desarrollo de sus clases con los diferentes grados  </t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB263" t="inlineStr"/>
+      <c r="AC263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El tema de género no está visto como política institucional, es decir no es explícita una manera institucional de abordarlo. Sin embargo, el docente líder de área si promueve la igualdad y el liderazgo femenino en diferentes actividades en el aula, aunque tampoco se explicita en el plan de área   </t>
+        </is>
+      </c>
+      <c r="AN263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AQ263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX263" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>270</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>081</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB264" t="inlineStr"/>
+      <c r="AC264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM264" t="inlineStr"/>
+      <c r="AN264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX264" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY264" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/LideresCFK.xlsx
+++ b/data/descargables/LideresCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY264"/>
+  <dimension ref="A1:AY265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65155,6 +65155,249 @@
       </c>
       <c r="AY264" t="inlineStr"/>
     </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>271</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>31/05</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>No está incluido el pensamiento computacional de manera específica, pero si actividades que promueven el pensamiento lógico.</t>
+        </is>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB265" t="inlineStr"/>
+      <c r="AC265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM265" t="inlineStr"/>
+      <c r="AN265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AS265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX265" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY265" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/LideresCFK.xlsx
+++ b/data/descargables/LideresCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY265"/>
+  <dimension ref="A1:AY266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65398,6 +65398,245 @@
       </c>
       <c r="AY265" t="inlineStr"/>
     </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>272</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>01/06</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>038</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V266" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="W266" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="X266" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z266" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA266" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB266" t="inlineStr"/>
+      <c r="AC266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL266" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AM266" t="inlineStr"/>
+      <c r="AN266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ266" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR266" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX266" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY266" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/LideresCFK.xlsx
+++ b/data/descargables/LideresCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY266"/>
+  <dimension ref="A1:AY267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65637,6 +65637,249 @@
       </c>
       <c r="AY266" t="inlineStr"/>
     </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>273</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>02/06</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB267" t="inlineStr"/>
+      <c r="AC267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM267" t="inlineStr">
+        <is>
+          <t>Por parte del docente líder del área de TI se manifiesta que si bien en el plan de área no se específica de manera explicita alguna estrategia que disminuya la diferencia entre niños y niñas, se considera a nivel general el trato con respeto como ciudadanos con igualdad de derechos y equidad ante la sociedad.</t>
+        </is>
+      </c>
+      <c r="AN267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY267" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/LideresCFK.xlsx
+++ b/data/descargables/LideresCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY267"/>
+  <dimension ref="A1:AY268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65880,6 +65880,257 @@
       </c>
       <c r="AY267" t="inlineStr"/>
     </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>274</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>03/06</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>Se trabaja el componente del pensamiento computacional a partir de este año y no se le da relevancia a un componente más que a otro, se trabajan 3 periodos y ca uno con una temática diferente que tienen un igual de porcentaje de importancia en el plan de estudios.</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se trabajan los casos de estudiantes con necesidades educativas especiales muy particularmente de acuerdo a la necesidad del estudiantes y esto se hace de forma autónoma por cada docente y con el apoyo del área de psicología. </t>
+        </is>
+      </c>
+      <c r="AC268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">el plan de estudios se encuentra en constante revisión, pero no por componente de género. En la institución no se hace diferencias entre niños y niñas, todos reciben un trato igualitario y no se establecen actividades diferenciadas para ello. </t>
+        </is>
+      </c>
+      <c r="AN268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY268" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/LideresCFK.xlsx
+++ b/data/descargables/LideresCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY266"/>
+  <dimension ref="A1:AY267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65641,6 +65641,245 @@
       </c>
       <c r="AY266" t="inlineStr"/>
     </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>275</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>07/06</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB267" t="inlineStr"/>
+      <c r="AC267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM267" t="inlineStr"/>
+      <c r="AN267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AX267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AY267" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/LideresCFK.xlsx
+++ b/data/descargables/LideresCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY267"/>
+  <dimension ref="A1:AY268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65880,6 +65880,249 @@
       </c>
       <c r="AY267" t="inlineStr"/>
     </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>276</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>08/06</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El desarrollo del pensamiento computacional se incluye en las diferentes clases de tecnología e informática y en otras áreas como Ciencias Naturales, Matemáticas y Artística; sin embrago, no se menciona de manera explícita en el plan. Hasta grado 9º el tema predominante en el plan es la ofimática, en los grados 10º y 11º se trabajan algunos elementos de programación pensamiento computacional </t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB268" t="inlineStr"/>
+      <c r="AC268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM268" t="inlineStr"/>
+      <c r="AN268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AQ268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY268" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/LideresCFK.xlsx
+++ b/data/descargables/LideresCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ266"/>
+  <dimension ref="A1:AZ269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66429,6 +66429,732 @@
       </c>
       <c r="AZ266" t="inlineStr"/>
     </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>279</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>10/06</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>279</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q267" t="inlineStr"/>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC267" t="inlineStr"/>
+      <c r="AD267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AN267" t="inlineStr"/>
+      <c r="AO267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AT267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AX267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AY267" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AZ267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>280</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>10/06</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>280</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr"/>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC268" t="inlineStr"/>
+      <c r="AD268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AN268" t="inlineStr"/>
+      <c r="AO268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AT268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AX268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY268" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AZ268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>281</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>10/06</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>281</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr"/>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC269" t="inlineStr"/>
+      <c r="AD269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AN269" t="inlineStr"/>
+      <c r="AO269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AT269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AX269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY269" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AZ269" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/LideresCFK.xlsx
+++ b/data/descargables/LideresCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ269"/>
+  <dimension ref="A1:AZ270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67155,6 +67155,260 @@
       </c>
       <c r="AZ269" t="inlineStr"/>
     </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>282</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>11/06</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>033</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>282</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durante la entrevista se menciona que el contenido del plan de área se propone a partir de los lineamientos del MEN, pero teniendo en cuenta el contexto institucional, en donde el líder de área se reúne junto al consejo académico se reúne y define que incluirá el plan. </t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W270" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="X270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC270" t="inlineStr">
+        <is>
+          <t>En el plan de área no se mencionan procesos específicos sobre inclusión o metodologías de adaptación para estudiantes con necesidades educativas especiales, sin embargo, durante la entrevista, el docente menciona que se apoyan en el DUA y el PIAR cuando se presentan casos especiales con los y las estudiantes.</t>
+        </is>
+      </c>
+      <c r="AD270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ270" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AN270" t="inlineStr"/>
+      <c r="AO270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AQ270" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AR270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AT270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU270" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AX270" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY270" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AZ270" t="inlineStr">
+        <is>
+          <t>En la entrevista se menciona que la IE brinda los espacios para los docentes que de forma autónoma desean formarse en sus áreas de interés, pero por cuestiones de tiempo, no se ha logrado que estos procesos sean generalizados, colectivos e institucionales.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/LideresCFK.xlsx
+++ b/data/descargables/LideresCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ270"/>
+  <dimension ref="A1:AZ271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67409,6 +67409,252 @@
         </is>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>283</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>15/06</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>283</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>El colegio es una institución técnico industrial y tiene 4 especialidades: dibujo técnico, sistemas electricidad y electrónica. El área de Tecnología e informática actualmente desarrolla solo en componente de tecnología desde la visión teórica de la evolución de las maquinas y herramientas, no disponemos con la infraestructura adecuada para el desarrollo apropiado de las actividades con la parte informática.</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA271" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AB271" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AC271" t="inlineStr"/>
+      <c r="AD271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF271" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AG271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK271" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AL271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AN271" t="inlineStr"/>
+      <c r="AO271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AQ271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AY271" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AZ271" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/LideresCFK.xlsx
+++ b/data/descargables/LideresCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ271"/>
+  <dimension ref="A1:AZ272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67655,6 +67655,252 @@
       </c>
       <c r="AZ271" t="inlineStr"/>
     </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>284</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>17/06</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>284</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>Al trabajarse el plan de área por ciclos, permite la continuidad de las temáticas</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W272" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X272" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC272" t="inlineStr"/>
+      <c r="AD272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AN272" t="inlineStr"/>
+      <c r="AO272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AQ272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AT272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AX272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AY272" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AZ272" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
